--- a/curva_historica/curva_historica_CBCRPS.xlsx
+++ b/curva_historica/curva_historica_CBCRPS.xlsx
@@ -20,13 +20,13 @@
     <t xml:space="preserve">Rango de fechas del </t>
   </si>
   <si>
-    <t>04/03/1813</t>
+    <t>01/01/2005</t>
   </si>
   <si>
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>05/12/2025</t>
+    <t>11/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -8924,7 +8924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{91e05915-2ded-4bc6-9ee2-3f4dcb48ad92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fcd138c2-60c1-43e1-84f3-4147f5ebec08}">
   <dimension ref="A1:D2780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CBCRPS.xlsx
+++ b/curva_historica/curva_historica_CBCRPS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>11/12/2025</t>
+    <t>14/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -8924,7 +8924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{fcd138c2-60c1-43e1-84f3-4147f5ebec08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{34ec1e11-34ab-40fd-90c9-7f2c34641762}">
   <dimension ref="A1:D2780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CBCRPS.xlsx
+++ b/curva_historica/curva_historica_CBCRPS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>16/12/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -8924,7 +8924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{65eb9f5c-8e3d-41fa-b40f-d6486543e90f}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5ca59b5a-0563-45bb-a4c9-ab97d576fa4e}">
   <dimension ref="A1:D2780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CBCRPS.xlsx
+++ b/curva_historica/curva_historica_CBCRPS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>18/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -8924,7 +8924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{5ca59b5a-0563-45bb-a4c9-ab97d576fa4e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{4232dee9-465b-4d8f-ae52-4de0f1c71bdb}">
   <dimension ref="A1:D2780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CBCRPS.xlsx
+++ b/curva_historica/curva_historica_CBCRPS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>26/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -8924,7 +8924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{9b0756d0-ba09-4d7e-9f65-1b42811673bf}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{1c217dbc-4155-4272-a6eb-46f1cd6d9a92}">
   <dimension ref="A1:D2780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
